--- a/Lab5/Backlog5_1.0.xlsx
+++ b/Lab5/Backlog5_1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cx3004 MDP\LabDeliverables\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F14AB5E-7C27-4C71-84DC-1A4F060B60AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8464AF73-4CE7-4783-BC84-9C320A300A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{88115C1F-A084-4961-AE82-7D27279F622C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>Team Member's Confidence about the Task (0-10)</t>
   </si>
@@ -534,30 +534,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,19 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -596,30 +562,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,11 +577,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC25351-F3E9-4C73-9863-8FAD6C401263}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -974,143 +974,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
     </row>
     <row r="2" spans="1:25" ht="36.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="43" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
     </row>
     <row r="3" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="32"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -1119,62 +1119,62 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="43">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="8">
         <v>9</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="8">
         <v>10</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="13">
         <v>9</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="9">
         <v>8</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="8">
         <v>8</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="8">
         <v>9</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="24">
         <f>AVERAGE(D5:I5)</f>
         <v>9</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="24">
         <f>AVERAGE(D6:I6)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="24">
         <f>AVERAGE(D7:I7)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18" t="s">
+      <c r="N4" s="27"/>
+      <c r="O4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="28" t="s">
         <v>6</v>
       </c>
       <c r="Q4" s="29">
         <v>5</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="35">
         <f>AVERAGE(D4:I4)</f>
         <v>8.8333333333333339</v>
       </c>
@@ -1186,39 +1186,39 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>8</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>10</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="12">
         <v>10</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>9</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>9</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="26"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1227,39 +1227,39 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>7</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>10</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="12">
         <v>9</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>6</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>8</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>6</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="26"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="36"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1268,39 +1268,39 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>14</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="12">
         <v>14</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>4</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>8</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="26"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="36"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1309,39 +1309,39 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7">
+      <c r="C8" s="7"/>
+      <c r="D8" s="5">
         <v>8</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>8</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="12">
         <v>9</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>8</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>9</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>9</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="24"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="37"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1350,64 +1350,64 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="30.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
+      <c r="A9" s="43">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="8">
         <v>9</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="8">
         <v>8</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="13">
         <v>9</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="9">
         <v>10</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="8">
         <v>7</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="8">
         <v>9</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="24">
         <f>AVERAGE(D10:I10)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="24">
         <f>AVERAGE(D11:I11)</f>
         <v>5.5</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="24">
         <f>AVERAGE(D12:I12)</f>
         <v>6</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="28" t="s">
         <v>6</v>
       </c>
       <c r="Q9" s="29">
         <v>5</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="35">
         <f>AVERAGE(D9:I9)</f>
         <v>8.6666666666666661</v>
       </c>
@@ -1419,39 +1419,39 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>9</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="12">
         <v>10</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>7</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>8</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>8</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="26"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="36"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1460,39 +1460,39 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>7</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>7</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="12">
         <v>10</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>6</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="26"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="36"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1501,39 +1501,39 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>7</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="12">
         <v>14</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>2</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>6</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="26"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="36"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1542,39 +1542,39 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7">
+      <c r="C13" s="7"/>
+      <c r="D13" s="5">
         <v>8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>9</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="12">
         <v>8</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>10</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>9</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="24"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="37"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1583,62 +1583,62 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="37.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="43">
         <v>3</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="8">
         <v>8</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="8">
         <v>9</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="13">
         <v>9</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="8">
         <v>8</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="8">
         <v>9</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="8">
         <v>8</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="24">
         <f>AVERAGE(D15:I15)</f>
         <v>7.833333333333333</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="24">
         <f>AVERAGE(D16:I16)</f>
         <v>6.5</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="24">
         <f>AVERAGE(D17:I17)</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18" t="s">
+      <c r="N14" s="27"/>
+      <c r="O14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="28" t="s">
         <v>6</v>
       </c>
       <c r="Q14" s="29">
         <v>7</v>
       </c>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="35">
         <f>AVERAGE(D14:I14)</f>
         <v>8.5</v>
       </c>
@@ -1650,39 +1650,39 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>7</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>7</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="12">
         <v>8</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>9</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>8</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>8</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="26"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="36"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1691,39 +1691,39 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
         <v>8</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>6</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="12">
         <v>6</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>6</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>5</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>8</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="26"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="36"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1732,39 +1732,39 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>4</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="12">
         <v>4</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>5</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>5</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>6</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="26"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="36"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -1773,39 +1773,39 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7">
+      <c r="C18" s="7"/>
+      <c r="D18" s="5">
         <v>7</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>9</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="12">
         <v>9</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>9</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>8</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <v>7</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="24"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="37"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -1814,62 +1814,62 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="43">
         <v>4</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="8">
         <v>8</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="8">
         <v>9</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="13">
         <v>10</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="8">
         <v>8</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="8">
         <v>9</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="8">
         <v>9</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="24">
         <f>AVERAGE(D20:I20)</f>
         <v>7.5</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="24">
         <f>AVERAGE(D21:I21)</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="24">
         <f>AVERAGE(D22:I22)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="28" t="s">
         <v>6</v>
       </c>
       <c r="Q19" s="29">
         <v>5</v>
       </c>
-      <c r="R19" s="15" t="s">
+      <c r="R19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="35">
         <f>AVERAGE(D19:I19)</f>
         <v>8.8333333333333339</v>
       </c>
@@ -1881,39 +1881,39 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
         <v>7</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>6</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="12">
         <v>7</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <v>9</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>8</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="5">
         <v>8</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="26"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="36"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -1922,39 +1922,39 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>6</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="12">
         <v>5</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>8</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>4</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <v>3</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="26"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="36"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1963,39 +1963,39 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>4</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="12">
         <v>4</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>7</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>4</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="5">
         <v>3</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="26"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="36"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -2004,39 +2004,39 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7">
+      <c r="C23" s="7"/>
+      <c r="D23" s="5">
         <v>10</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>8</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="12">
         <v>10</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>9</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>8</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <v>10</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="24"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="37"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -2045,62 +2045,62 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="43">
         <v>5</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="8">
         <v>10</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="8">
         <v>9</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="8">
         <v>9</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="8">
         <v>8</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="8">
         <v>8</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="8">
         <v>10</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="24">
         <f>AVERAGE(D25:I25)</f>
         <v>7</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="24">
         <f>AVERAGE(D26:I26)</f>
         <v>5.5</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="24">
         <f>AVERAGE(D27:I27)</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18" t="s">
+      <c r="N24" s="27"/>
+      <c r="O24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="17" t="s">
+      <c r="P24" s="28" t="s">
         <v>6</v>
       </c>
       <c r="Q24" s="29">
         <v>5</v>
       </c>
-      <c r="R24" s="15" t="s">
+      <c r="R24" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="28">
+      <c r="S24" s="35">
         <f>AVERAGE(D24:I24)</f>
         <v>9</v>
       </c>
@@ -2112,39 +2112,39 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>8</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>8</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <v>7</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>9</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <v>5</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="26"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="36"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -2153,39 +2153,39 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
         <v>3</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>5</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>7</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <v>7</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>8</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <v>3</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="26"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="36"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -2194,39 +2194,39 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
         <v>3</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>5</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>7</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>4</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>7</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <v>3</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="26"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="36"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -2235,39 +2235,39 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7">
+      <c r="C28" s="7"/>
+      <c r="D28" s="5">
         <v>10</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>8</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <v>9</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <v>9</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>9</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <v>10</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="24"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="37"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2276,46 +2276,38 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="43">
         <v>6</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="14" t="e">
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="24" t="e">
         <f>AVERAGE(D30:I30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="14" t="e">
+      <c r="K29" s="24" t="e">
         <f>AVERAGE(D31:I31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="14" t="e">
+      <c r="L29" s="24" t="e">
         <f>AVERAGE(D32:I32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="16">
-        <v>5</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="14" t="e">
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="24" t="e">
         <f>AVERAGE(D29:I29)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2327,27 +2319,27 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="11"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="25"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -2356,27 +2348,27 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="11"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="25"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -2385,27 +2377,27 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="11"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="25"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -2414,27 +2406,27 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="26"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -2443,38 +2435,38 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+      <c r="A34" s="43">
         <v>7</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="14" t="e">
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="24" t="e">
         <f>AVERAGE(D35:I35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="14" t="e">
+      <c r="K34" s="24" t="e">
         <f>AVERAGE(D36:I36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="14" t="e">
+      <c r="L34" s="24" t="e">
         <f>AVERAGE(D37:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="14" t="e">
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="24" t="e">
         <f>AVERAGE(D34:I34)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2486,27 +2478,27 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="11"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="25"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -2515,27 +2507,27 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="11"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="25"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -2544,27 +2536,27 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="11"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="25"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -2573,27 +2565,27 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="26"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -2602,38 +2594,38 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="43">
         <v>8</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="14" t="e">
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="24" t="e">
         <f>AVERAGE(D40:I40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="14" t="e">
+      <c r="K39" s="24" t="e">
         <f>AVERAGE(D41:I41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="14" t="e">
+      <c r="L39" s="24" t="e">
         <f>AVERAGE(D42:I42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="14" t="e">
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="24" t="e">
         <f>AVERAGE(D39:I39)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2645,27 +2637,27 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="11"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="25"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -2674,27 +2666,27 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="11"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="25"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -2703,27 +2695,27 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="11"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="25"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -2732,27 +2724,27 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="26"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -2761,38 +2753,38 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
+      <c r="A44" s="43">
         <v>9</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="14" t="e">
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="24" t="e">
         <f>AVERAGE(D45:I45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="14" t="e">
+      <c r="K44" s="24" t="e">
         <f>AVERAGE(D46:I46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="14" t="e">
+      <c r="L44" s="24" t="e">
         <f>AVERAGE(D47:I47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="14" t="e">
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="24" t="e">
         <f>AVERAGE(D44:I44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2804,27 +2796,27 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="11"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="25"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
@@ -2833,27 +2825,27 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="11"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="25"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -2862,27 +2854,27 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="11"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="25"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -2891,27 +2883,27 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="26"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -2920,38 +2912,38 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
+      <c r="A49" s="43">
         <v>10</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="14" t="e">
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="24" t="e">
         <f>AVERAGE(D50:I50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="14" t="e">
+      <c r="K49" s="24" t="e">
         <f>AVERAGE(D51:I51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="14" t="e">
+      <c r="L49" s="24" t="e">
         <f>AVERAGE(D52:I52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="14" t="e">
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="24" t="e">
         <f>AVERAGE(D49:I49)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2963,27 +2955,27 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="11"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="25"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
@@ -2992,27 +2984,27 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="11"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="25"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
@@ -3021,27 +3013,27 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="11"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="25"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
@@ -3050,27 +3042,27 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="45"/>
+      <c r="B53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="26"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
@@ -28649,9 +28641,6 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="P19:P23"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="R14:R18"/>
     <mergeCell ref="J14:J18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="L14:L18"/>
@@ -28665,24 +28654,15 @@
     <mergeCell ref="M19:M23"/>
     <mergeCell ref="N19:N23"/>
     <mergeCell ref="O19:O23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="M24:M28"/>
     <mergeCell ref="N24:N28"/>
     <mergeCell ref="O24:O28"/>
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="P34:P38"/>
     <mergeCell ref="Q29:Q33"/>
     <mergeCell ref="R29:R33"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="N29:N33"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="P29:P33"/>
-    <mergeCell ref="R44:R48"/>
-    <mergeCell ref="S44:S48"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="R14:R18"/>
     <mergeCell ref="K39:K43"/>
     <mergeCell ref="Q34:Q38"/>
     <mergeCell ref="R34:R38"/>
@@ -28707,6 +28687,8 @@
     <mergeCell ref="S39:S43"/>
     <mergeCell ref="P44:P48"/>
     <mergeCell ref="Q44:Q48"/>
+    <mergeCell ref="R44:R48"/>
+    <mergeCell ref="S44:S48"/>
     <mergeCell ref="J49:J53"/>
     <mergeCell ref="K49:K53"/>
     <mergeCell ref="L49:L53"/>
@@ -28716,6 +28698,15 @@
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="N49:N53"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="M39:M43"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:A2"/>
@@ -28725,15 +28716,12 @@
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="M39:M43"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="N29:N33"/>
+    <mergeCell ref="O29:O33"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
@@ -28753,7 +28741,6 @@
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="O4:O8"/>
     <mergeCell ref="P4:P8"/>
-    <mergeCell ref="S29:S33"/>
     <mergeCell ref="S34:S38"/>
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="K9:K13"/>
@@ -28773,6 +28760,11 @@
     <mergeCell ref="R24:R28"/>
     <mergeCell ref="Q19:Q23"/>
     <mergeCell ref="R19:R23"/>
+    <mergeCell ref="P29:P33"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="M24:M28"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3 D54:I56" xr:uid="{00000000-0002-0000-0500-000009000000}">
